--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010072</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010073</t>
+          <t>010072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合C</t>
+          <t>方正富邦策略精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>54.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>010073</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>方正富邦策略精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.56</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.54</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.56</v>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.84</v>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2920,7 +2921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,17 +2932,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2972,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.99</v>
       </c>
     </row>
     <row r="3">
@@ -2967,14 +3010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.54</v>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2983,14 +3048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.56</v>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2999,14 +3086,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.63</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3015,14 +3124,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.84</v>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3031,13 +3162,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>6.99</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>14.54</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>13.56</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2401,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3096,176 +3777,6 @@
       </c>
       <c r="H18" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4934</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010073</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3345,21 +3856,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6925</t>
+          <t>0.4934</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3378,22 +3889,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1361</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3416,22 +3927,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3444,6 +3955,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01776-广发证券.xlsx
+++ b/数据整理/stocks/港股/01776-广发证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>6.99</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>14.54</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>13.56</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3082,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3777,176 +4286,6 @@
       </c>
       <c r="H18" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4934</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010073</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4026,21 +4365,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6925</t>
+          <t>0.4934</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4059,22 +4398,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1361</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4097,22 +4436,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4132,51 +4471,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4191,22 +4530,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5607</t>
+          <t>0.6925</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4214,82 +4553,82 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>010072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>方正富邦策略精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>010073</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>方正富邦策略精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>